--- a/output/MOMENTUM/rebalance/rebalance_20240628.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20240628.xlsx
@@ -6306,13 +6306,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02678467589456685</v>
+        <v>0.02676531254577463</v>
       </c>
       <c r="C4" t="n">
         <v>0.02136108448582774</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.005423591408739107</v>
+        <v>-0.005404228059946895</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02690561353520056</v>
+        <v>0.02688739280416787</v>
       </c>
       <c r="C9" t="n">
         <v>0.02109913138733933</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.005806482147861228</v>
+        <v>-0.00578826141682854</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02448021709258182</v>
+        <v>0.02446375542498225</v>
       </c>
       <c r="C10" t="n">
         <v>0.02108722442831713</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.003392992664264693</v>
+        <v>-0.003376530996665125</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6495,13 +6495,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02418298115151589</v>
+        <v>0.02416639904739732</v>
       </c>
       <c r="C13" t="n">
         <v>0.02089671308396192</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003286268067553968</v>
+        <v>-0.003269685963435402</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0233372882473473</v>
+        <v>0.02332172567965514</v>
       </c>
       <c r="C14" t="n">
         <v>0.02087289916591752</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.00246438908142978</v>
+        <v>-0.002448826513737616</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6621,13 +6621,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02318897767035142</v>
+        <v>0.02317313826573934</v>
       </c>
       <c r="C19" t="n">
         <v>0.0204918764772071</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.00269710119314432</v>
+        <v>-0.002681261788532233</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6684,13 +6684,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02097845757289625</v>
+        <v>0.0209651177869224</v>
       </c>
       <c r="C22" t="n">
         <v>0.0203728068869851</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.000605650685911157</v>
+        <v>-0.0005923108999373039</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6705,13 +6705,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02106396496376163</v>
+        <v>0.02104869486626991</v>
       </c>
       <c r="C23" t="n">
         <v>0.0203132720918741</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0007506928718875351</v>
+        <v>-0.0007354227743958108</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6789,13 +6789,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02282934889659497</v>
+        <v>0.0228128667607073</v>
       </c>
       <c r="C27" t="n">
         <v>0.01976555197685287</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.003063796919742102</v>
+        <v>-0.003047314783854435</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6915,13 +6915,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02177492685041611</v>
+        <v>0.0217610906497041</v>
       </c>
       <c r="C33" t="n">
         <v>0.01946787800129786</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.002307048849118254</v>
+        <v>-0.002293212648406248</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -7020,13 +7020,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01988390206953781</v>
+        <v>0.01986901846258075</v>
       </c>
       <c r="C38" t="n">
         <v>0.01928332013645375</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0006005819330840642</v>
+        <v>-0.0005856983261269995</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01964588323349147</v>
+        <v>0.01963221397042177</v>
       </c>
       <c r="C40" t="n">
         <v>0.01912257618965404</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0005233070438374239</v>
+        <v>-0.0005096377807677251</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7125,13 +7125,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01965636679257276</v>
+        <v>0.01964359093941968</v>
       </c>
       <c r="C43" t="n">
         <v>0.01906304139454304</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0005933253980297259</v>
+        <v>-0.0005805495448766435</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01940567374223736</v>
+        <v>0.01939432149560106</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01940567374223736</v>
+        <v>-0.01939432149560106</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01763893819849747</v>
+        <v>0.01762810827435463</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01763893819849747</v>
+        <v>-0.01762810827435463</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01854423557332359</v>
+        <v>0.01853201484711479</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01854423557332359</v>
+        <v>-0.01853201484711479</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02115223418895027</v>
+        <v>0.02113838337977332</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02115223418895027</v>
+        <v>-0.02113838337977332</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01667796304776169</v>
+        <v>0.01666799584526348</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01667796304776169</v>
+        <v>-0.01666799584526348</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7419,13 +7419,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01787072843918782</v>
+        <v>0.01785921540654717</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01787072843918782</v>
+        <v>-0.01785921540654717</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01587610385644152</v>
+        <v>0.01586622431532123</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01587610385644152</v>
+        <v>-0.01586622431532123</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.02103753269137854</v>
+        <v>0.02102356875434383</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02103753269137854</v>
+        <v>-0.02102356875434383</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01716000094766644</v>
+        <v>0.01714837716681158</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01716000094766644</v>
+        <v>-0.01714837716681158</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01789810744549053</v>
+        <v>0.01788539500576207</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01789810744549053</v>
+        <v>-0.01788539500576207</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01741637255042381</v>
+        <v>0.01740491862563647</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01741637255042381</v>
+        <v>-0.01740491862563647</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.02268589369319816</v>
+        <v>0.02267022583143095</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.02268589369319816</v>
+        <v>-0.02267022583143095</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7566,13 +7566,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02065083258294321</v>
+        <v>0.02063621692039813</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02065083258294321</v>
+        <v>-0.02063621692039813</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0177089883342168</v>
+        <v>0.01835778397246286</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.0177089883342168</v>
+        <v>-0.01835778397246286</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01879405430816999</v>
+        <v>0.01878171163090819</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01879405430816999</v>
+        <v>-0.01878171163090819</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7629,13 +7629,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.02048581045312513</v>
+        <v>0.02047255116344955</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.02048581045312513</v>
+        <v>-0.02047255116344955</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7650,13 +7650,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01702648496699934</v>
+        <v>0.01701564960624678</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01702648496699934</v>
+        <v>-0.01701564960624678</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7671,13 +7671,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01927293505060321</v>
+        <v>0.01926037721364731</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01927293505060321</v>
+        <v>-0.01926037721364731</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.0190524621644497</v>
+        <v>0.01903947891731817</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.0190524621644497</v>
+        <v>-0.01903947891731817</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7713,13 +7713,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01834344072520747</v>
+        <v>0.01833267605343167</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01834344072520747</v>
+        <v>-0.01833267605343167</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7734,13 +7734,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01851131752238282</v>
+        <v>0.01849975286529624</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01851131752238282</v>
+        <v>-0.01849975286529624</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7755,13 +7755,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01654446700573243</v>
+        <v>0.01653358408666686</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01654446700573243</v>
+        <v>-0.01653358408666686</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7776,13 +7776,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01786210114065719</v>
+        <v>0.01785031264995378</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01786210114065719</v>
+        <v>-0.01785031264995378</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01911597610146519</v>
+        <v>0.01910305689983283</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01911597610146519</v>
+        <v>-0.01910305689983283</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7818,13 +7818,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01777205547091542</v>
+        <v>0.01776066370220278</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01777205547091542</v>
+        <v>-0.01776066370220278</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7839,13 +7839,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.02130810165058636</v>
+        <v>0.02129546504299729</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.02130810165058636</v>
+        <v>-0.02129546504299729</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7860,13 +7860,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.02098095193593227</v>
+        <v>0.02096677722134046</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.02098095193593227</v>
+        <v>-0.02096677722134046</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7881,13 +7881,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01704163068395981</v>
+        <v>0.01703100797999759</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01704163068395981</v>
+        <v>-0.01703100797999759</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02011620116209175</v>
+        <v>0.02010303230962657</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.02011620116209175</v>
+        <v>-0.02010303230962657</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7923,13 +7923,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.02173390555737619</v>
+        <v>0.02171940114281552</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.02173390555737619</v>
+        <v>-0.02171940114281552</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.01687767023641771</v>
+        <v>0.0168665102115066</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01687767023641771</v>
+        <v>-0.0168665102115066</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7965,13 +7965,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.02078069251191465</v>
+        <v>0.02076752328624346</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.02078069251191465</v>
+        <v>-0.02076752328624346</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -7986,13 +7986,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01915621194965469</v>
+        <v>0.01914339244518922</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01915621194965469</v>
+        <v>-0.01914339244518922</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8007,13 +8007,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.02138169907354695</v>
+        <v>0.02136741001183429</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.02138169907354695</v>
+        <v>-0.02136741001183429</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8028,13 +8028,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.02017217539330781</v>
+        <v>0.02015987392632543</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.02017217539330781</v>
+        <v>-0.02015987392632543</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8049,13 +8049,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.0183885679708124</v>
+        <v>0.01837647705246463</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.0183885679708124</v>
+        <v>-0.01837647705246463</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8070,13 +8070,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.02284487770213964</v>
+        <v>0.02283024753614081</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.02284487770213964</v>
+        <v>-0.02283024753614081</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>

--- a/output/MOMENTUM/rebalance/rebalance_20240628.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20240628.xlsx
@@ -6306,13 +6306,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02676531254577463</v>
+        <v>0.02690543534701921</v>
       </c>
       <c r="C4" t="n">
         <v>0.02136108448582774</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.005404228059946895</v>
+        <v>-0.005544350861191472</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02688739280416787</v>
+        <v>0.02702691823835229</v>
       </c>
       <c r="C9" t="n">
         <v>0.02109913138733933</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.00578826141682854</v>
+        <v>-0.005927786851012966</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02446375542498225</v>
+        <v>0.02459058682875677</v>
       </c>
       <c r="C10" t="n">
         <v>0.02108722442831713</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.003376530996665125</v>
+        <v>-0.003503362400439643</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6495,13 +6495,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02416639904739732</v>
+        <v>0.02429201079122548</v>
       </c>
       <c r="C13" t="n">
         <v>0.02089671308396192</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003269685963435402</v>
+        <v>-0.003395297707263562</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02332172567965514</v>
+        <v>0.02334778786504628</v>
       </c>
       <c r="C14" t="n">
         <v>0.02087289916591752</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.002448826513737616</v>
+        <v>-0.00247488869912876</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6621,13 +6621,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02317313826573934</v>
+        <v>0.02329352581786027</v>
       </c>
       <c r="C19" t="n">
         <v>0.0204918764772071</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.002681261788532233</v>
+        <v>-0.002801649340653172</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6684,13 +6684,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0209651177869224</v>
+        <v>0.02107303952937653</v>
       </c>
       <c r="C22" t="n">
         <v>0.0203728068869851</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0005923108999373039</v>
+        <v>-0.0007002326423914303</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6705,13 +6705,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02104869486626991</v>
+        <v>0.02115893243267976</v>
       </c>
       <c r="C23" t="n">
         <v>0.0203132720918741</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0007354227743958108</v>
+        <v>-0.000845660340805663</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6789,13 +6789,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0228128667607073</v>
+        <v>0.02293227564782575</v>
       </c>
       <c r="C27" t="n">
         <v>0.01976555197685287</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.003047314783854435</v>
+        <v>-0.003166723670972881</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6915,13 +6915,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0217610906497041</v>
+        <v>0.02187309971067387</v>
       </c>
       <c r="C33" t="n">
         <v>0.01946787800129786</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.002293212648406248</v>
+        <v>-0.002405221709376012</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -7020,13 +7020,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01986901846258075</v>
+        <v>0.01997354919224281</v>
       </c>
       <c r="C38" t="n">
         <v>0.01928332013645375</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0005856983261269995</v>
+        <v>-0.0006902290557890579</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01963221397042177</v>
+        <v>0.01973445724168773</v>
       </c>
       <c r="C40" t="n">
         <v>0.01912257618965404</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0005096377807677251</v>
+        <v>-0.0006118810520336845</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7125,13 +7125,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01964359093941968</v>
+        <v>0.01974498806618524</v>
       </c>
       <c r="C43" t="n">
         <v>0.01906304139454304</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0005805495448766435</v>
+        <v>-0.0006819466716421994</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01939432149560106</v>
+        <v>0.01949316475929526</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01939432149560106</v>
+        <v>-0.01949316475929526</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01762810827435463</v>
+        <v>0.01771846383946757</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01762810827435463</v>
+        <v>-0.01771846383946757</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01853201484711479</v>
+        <v>0.01862784277255935</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01853201484711479</v>
+        <v>-0.01862784277255935</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02113838337977332</v>
+        <v>0.02124759962211274</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02113838337977332</v>
+        <v>-0.02124759962211274</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01666799584526348</v>
+        <v>0.01604910681402744</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01666799584526348</v>
+        <v>-0.01604910681402744</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7419,13 +7419,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01785921540654717</v>
+        <v>0.01795129911287214</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01785921540654717</v>
+        <v>-0.01795129911287214</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01586622431532123</v>
+        <v>0.01594768170999956</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01586622431532123</v>
+        <v>-0.01594768170999956</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.02102356875434383</v>
+        <v>0.02113238098966522</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02102356875434383</v>
+        <v>-0.02113238098966522</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01714837716681158</v>
+        <v>0.01695998436493172</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01714837716681158</v>
+        <v>-0.01695998436493172</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01788539500576207</v>
+        <v>0.01797880155818238</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01788539500576207</v>
+        <v>-0.01797880155818238</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01740491862563647</v>
+        <v>0.01749489474801075</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01740491862563647</v>
+        <v>-0.01749489474801075</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.02267022583143095</v>
+        <v>0.02278817367267475</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.02267022583143095</v>
+        <v>-0.02278817367267475</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7566,13 +7566,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02063621692039813</v>
+        <v>0.02074393743309029</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02063621692039813</v>
+        <v>-0.02074393743309029</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01835778397246286</v>
+        <v>0.01712506749226062</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01835778397246286</v>
+        <v>-0.01712506749226062</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01878171163090819</v>
+        <v>0.01887878782208475</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01878171163090819</v>
+        <v>-0.01887878782208475</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7629,13 +7629,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.02047255116344955</v>
+        <v>0.02057817129643345</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.02047255116344955</v>
+        <v>-0.02057817129643345</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7650,13 +7650,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01701564960624678</v>
+        <v>0.01653254655202993</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01701564960624678</v>
+        <v>-0.01653254655202993</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7671,13 +7671,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01926037721364731</v>
+        <v>0.01935982761159676</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01926037721364731</v>
+        <v>-0.01935982761159676</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01903947891731817</v>
+        <v>0.01913836071733513</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01903947891731817</v>
+        <v>-0.01913836071733513</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7713,13 +7713,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01833267605343167</v>
+        <v>0.01842614263531413</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01833267605343167</v>
+        <v>-0.01842614263531413</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7734,13 +7734,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01849975286529624</v>
+        <v>0.01803970836013246</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01849975286529624</v>
+        <v>-0.01803970836013246</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7755,13 +7755,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01653358408666686</v>
+        <v>0.01661905819304389</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01653358408666686</v>
+        <v>-0.01661905819304389</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7776,13 +7776,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01785031264995378</v>
+        <v>0.01794263291792733</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01785031264995378</v>
+        <v>-0.01794263291792733</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01910305689983283</v>
+        <v>0.01920216100869319</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01910305689983283</v>
+        <v>-0.01920216100869319</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7818,13 +7818,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01776066370220278</v>
+        <v>0.0178521812747918</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01776066370220278</v>
+        <v>-0.0178521812747918</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7839,13 +7839,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.02129546504299729</v>
+        <v>0.02140416981651277</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.02129546504299729</v>
+        <v>-0.02140416981651277</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7860,13 +7860,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.02096677722134046</v>
+        <v>0.02107554513831732</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.02096677722134046</v>
+        <v>-0.02107554513831732</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7881,13 +7881,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01703100797999759</v>
+        <v>0.016241412739859</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01703100797999759</v>
+        <v>-0.016241412739859</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02010303230962657</v>
+        <v>0.02020689561168367</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.02010303230962657</v>
+        <v>-0.02020689561168367</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7923,13 +7923,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.02171940114281552</v>
+        <v>0.02144388588659631</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.02171940114281552</v>
+        <v>-0.02144388588659631</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0168665102115066</v>
+        <v>0.01695376367971508</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.0168665102115066</v>
+        <v>-0.01695376367971508</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7965,13 +7965,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.02076752328624346</v>
+        <v>0.02087438283914497</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.02076752328624346</v>
+        <v>-0.02087438283914497</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -7986,13 +7986,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01914339244518922</v>
+        <v>0.01924257826131766</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01914339244518922</v>
+        <v>-0.01924257826131766</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8007,13 +8007,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.02136741001183429</v>
+        <v>0.02147809905549134</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.02136741001183429</v>
+        <v>-0.02147809905549134</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8028,13 +8028,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.02015987392632543</v>
+        <v>0.01988533518012267</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.02015987392632543</v>
+        <v>-0.01988533518012267</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8049,13 +8049,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01837647705246463</v>
+        <v>0.01847147333835464</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01837647705246463</v>
+        <v>-0.01847147333835464</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8070,13 +8070,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.02283024753614081</v>
+        <v>0.02294787446541991</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.02283024753614081</v>
+        <v>-0.02294787446541991</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
